--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -72,12 +72,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,82 +105,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,8 +126,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,9 +204,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,18 +267,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,7 +279,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,25 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,49 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,26 +458,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,9 +499,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,27 +518,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,137 +560,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,7 +700,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -919,7 +923,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="movingAvg"/>
-            <c:period val="6"/>
+            <c:period val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1080,7 +1084,7 @@
                   <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="General">
-                  <c:v>62</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,7 +1215,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="movingAvg"/>
-            <c:period val="5"/>
+            <c:period val="4"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -2624,7 +2628,7 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="3">
         <f>ABS($B2-E2)</f>
         <v>212</v>
@@ -2686,7 +2690,7 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M17" si="1">ABS($B3-E3)</f>
         <v>17.5</v>
@@ -2749,7 +2753,7 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="4">
         <f t="shared" si="1"/>
         <v>39.5</v>
@@ -2813,7 +2817,7 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2878,7 +2882,7 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2944,7 +2948,7 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>52.5</v>
@@ -3011,7 +3015,7 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -3079,7 +3083,7 @@
         <f>(B2+B9)/2</f>
         <v>128.5</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3147,7 +3151,7 @@
         <f t="shared" ref="K10:K17" si="14">(B3+B10)/2</f>
         <v>100</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3215,7 +3219,7 @@
         <f t="shared" si="14"/>
         <v>161</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="4">
         <f t="shared" si="1"/>
         <v>100.5</v>
@@ -3283,7 +3287,7 @@
         <f t="shared" si="14"/>
         <v>105.5</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="4">
         <f t="shared" si="1"/>
         <v>43.5</v>
@@ -3351,7 +3355,7 @@
         <f t="shared" si="14"/>
         <v>38.5</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="4">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -3419,7 +3423,7 @@
         <f t="shared" si="14"/>
         <v>93</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3487,7 +3491,7 @@
         <f t="shared" si="14"/>
         <v>31.5</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="4">
         <f t="shared" si="1"/>
         <v>7.5</v>
@@ -3555,7 +3559,7 @@
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="4">
         <f t="shared" si="1"/>
         <v>52.5</v>
@@ -3590,67 +3594,67 @@
         <v>42606</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>18</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="8"/>
-        <v>94.5</v>
+        <v>98</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>45.5</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="10"/>
-        <v>49.5</v>
+        <v>53</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="11"/>
-        <v>47.5</v>
+        <v>51</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="12"/>
-        <v>99.5</v>
+        <v>103</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="13"/>
-        <v>143</v>
+        <v>146.5</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="14"/>
-        <v>42.5</v>
-      </c>
-      <c r="L17" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="L17" s="5"/>
       <c r="M17" s="4">
         <f t="shared" si="1"/>
-        <v>32.5</v>
+        <v>29</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>23.5</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="4"/>
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="5"/>
-        <v>37.5</v>
+        <v>34</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" si="6"/>
-        <v>81</v>
+        <v>77.5</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="7"/>
-        <v>19.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView windowWidth="23280" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,9 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -697,13 +697,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1086,6 +1086,9 @@
                 <c:pt idx="15" c:formatCode="General">
                   <c:v>69</c:v>
                 </c:pt>
+                <c:pt idx="16" c:formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1377,6 +1380,9 @@
                 </c:pt>
                 <c:pt idx="15" c:formatCode="General">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,7 +2536,7 @@
   <sheetPr/>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3657,9 +3663,72 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>42607</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <f>(B17+B18)/2</f>
+        <v>38</v>
+      </c>
+      <c r="F18" s="4">
+        <f>(B16+B18)/2</f>
+        <v>67</v>
+      </c>
+      <c r="G18" s="4">
+        <f>(B15+B18)/2</f>
+        <v>14.5</v>
+      </c>
+      <c r="H18" s="4">
+        <f>(B14+B18)/2</f>
+        <v>22</v>
+      </c>
+      <c r="I18" s="4">
+        <f>(B13+B18)/2</f>
+        <v>20</v>
+      </c>
+      <c r="J18" s="4">
+        <f>(B12+B18)/2</f>
+        <v>72</v>
+      </c>
+      <c r="K18" s="4">
+        <f>(B11+B18)/2</f>
+        <v>115.5</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="4">
+        <f>ABS($B18-E18)</f>
+        <v>31</v>
+      </c>
+      <c r="N18" s="4">
+        <f>ABS($B18-F18)</f>
+        <v>60</v>
+      </c>
+      <c r="O18" s="4">
+        <f>ABS($B18-G18)</f>
+        <v>7.5</v>
+      </c>
+      <c r="P18" s="4">
+        <f>ABS($B18-H18)</f>
+        <v>15</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>ABS($B18-I18)</f>
+        <v>13</v>
+      </c>
+      <c r="R18" s="4">
+        <f>ABS($B18-J18)</f>
+        <v>65</v>
+      </c>
+      <c r="S18" s="4">
+        <f>ABS($B18-K18)</f>
+        <v>108.5</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3748,7 +3817,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,46 +26,46 @@
     <t>Kalles Fraktaler</t>
   </si>
   <si>
-    <t>2 预测值</t>
+    <t>1 天预测值</t>
   </si>
   <si>
-    <t>3 预测值</t>
+    <t>2 天预测值</t>
   </si>
   <si>
-    <t>4 预测值</t>
+    <t>3 天预测值</t>
   </si>
   <si>
-    <t>5 预测值</t>
+    <t>4 天预测值</t>
   </si>
   <si>
-    <t>6 预测值</t>
+    <t>5 天预测值</t>
   </si>
   <si>
-    <t>7 预测值</t>
+    <t>6 天预测值</t>
   </si>
   <si>
-    <t>8 预测值</t>
+    <t>7 天预测值</t>
   </si>
   <si>
-    <t>2 误差</t>
+    <t>1 天误差</t>
   </si>
   <si>
-    <t>3 误差</t>
+    <t>2 天误差</t>
   </si>
   <si>
-    <t>4 误差</t>
+    <t>3 天误差</t>
   </si>
   <si>
-    <t>5 误差</t>
+    <t>4 天误差</t>
   </si>
   <si>
-    <t>6 误差</t>
+    <t>5 天误差</t>
   </si>
   <si>
-    <t>7 误差</t>
+    <t>6 天误差</t>
   </si>
   <si>
-    <t>8 误差</t>
+    <t>7 天误差</t>
   </si>
 </sst>
 </file>
@@ -2536,7 +2536,7 @@
   <sheetPr/>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2545,6 +2545,7 @@
     <col min="1" max="1" width="14.5"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="1.125" customWidth="1"/>
+    <col min="5" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3817,7 +3818,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -1087,7 +1087,7 @@
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="General">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3669,67 +3669,67 @@
         <v>42607</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="E18" s="4">
         <f>(B17+B18)/2</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4">
         <f>(B16+B18)/2</f>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G18" s="4">
         <f>(B15+B18)/2</f>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="H18" s="4">
         <f>(B14+B18)/2</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I18" s="4">
         <f>(B13+B18)/2</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J18" s="4">
         <f>(B12+B18)/2</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K18" s="4">
         <f>(B11+B18)/2</f>
-        <v>115.5</v>
+        <v>120.5</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="4">
         <f>ABS($B18-E18)</f>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N18" s="4">
         <f>ABS($B18-F18)</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O18" s="4">
         <f>ABS($B18-G18)</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="P18" s="4">
         <f>ABS($B18-H18)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="4">
         <f>ABS($B18-I18)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R18" s="4">
         <f>ABS($B18-J18)</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="S18" s="4">
         <f>ABS($B18-K18)</f>
-        <v>108.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3819,7 +3819,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -1087,7 +1087,7 @@
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="General">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,7 +2537,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3669,67 +3669,67 @@
         <v>42607</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="E18" s="4">
         <f>(B17+B18)/2</f>
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="F18" s="4">
         <f>(B16+B18)/2</f>
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="G18" s="4">
         <f>(B15+B18)/2</f>
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="H18" s="4">
         <f>(B14+B18)/2</f>
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="I18" s="4">
         <f>(B13+B18)/2</f>
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="J18" s="4">
         <f>(B12+B18)/2</f>
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="K18" s="4">
         <f>(B11+B18)/2</f>
-        <v>120.5</v>
+        <v>121</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="4">
         <f>ABS($B18-E18)</f>
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="N18" s="4">
         <f>ABS($B18-F18)</f>
-        <v>55</v>
+        <v>54.5</v>
       </c>
       <c r="O18" s="4">
         <f>ABS($B18-G18)</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P18" s="4">
         <f>ABS($B18-H18)</f>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q18" s="4">
         <f>ABS($B18-I18)</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="R18" s="4">
         <f>ABS($B18-J18)</f>
-        <v>60</v>
+        <v>59.5</v>
       </c>
       <c r="S18" s="4">
         <f>ABS($B18-K18)</f>
-        <v>103.5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -73,12 +73,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1382,7 +1382,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,7 +2537,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2699,31 +2699,31 @@
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M17" si="1">ABS($B3-E3)</f>
+        <f t="shared" ref="M3:M18" si="1">ABS($B3-E3)</f>
         <v>17.5</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N17" si="2">ABS($B3-F3)</f>
+        <f t="shared" ref="N3:N18" si="2">ABS($B3-F3)</f>
         <v>177</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O17" si="3">ABS($B3-G3)</f>
+        <f t="shared" ref="O3:O18" si="3">ABS($B3-G3)</f>
         <v>177</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P17" si="4">ABS($B3-H3)</f>
+        <f t="shared" ref="P3:P18" si="4">ABS($B3-H3)</f>
         <v>177</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q17" si="5">ABS($B3-I3)</f>
+        <f t="shared" ref="Q3:Q18" si="5">ABS($B3-I3)</f>
         <v>177</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" ref="R3:R17" si="6">ABS($B3-J3)</f>
+        <f t="shared" ref="R3:R18" si="6">ABS($B3-J3)</f>
         <v>177</v>
       </c>
       <c r="S3" s="3">
-        <f t="shared" ref="S3:S17" si="7">ABS($B3-K3)</f>
+        <f t="shared" ref="S3:S18" si="7">ABS($B3-K3)</f>
         <v>177</v>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E17" si="8">(B3+B4)/2</f>
+        <f t="shared" ref="E4:E18" si="8">(B3+B4)/2</f>
         <v>137.5</v>
       </c>
       <c r="F4" s="4">
@@ -2805,7 +2805,7 @@
         <v>86</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F17" si="9">(B3+B5)/2</f>
+        <f t="shared" ref="F5:F18" si="9">(B3+B5)/2</f>
         <v>125.5</v>
       </c>
       <c r="G5" s="4">
@@ -2873,7 +2873,7 @@
         <v>71</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" ref="G6:G17" si="10">(B3+B6)/2</f>
+        <f t="shared" ref="G6:G18" si="10">(B3+B6)/2</f>
         <v>110.5</v>
       </c>
       <c r="H6" s="4">
@@ -2942,7 +2942,7 @@
         <v>123.5</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" ref="H7:H17" si="11">(B3+B7)/2</f>
+        <f t="shared" ref="H7:H18" si="11">(B3+B7)/2</f>
         <v>163</v>
       </c>
       <c r="I7" s="4">
@@ -3012,7 +3012,7 @@
         <v>69.5</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" ref="I8:I17" si="12">(B3+B8)/2</f>
+        <f t="shared" ref="I8:I18" si="12">(B3+B8)/2</f>
         <v>109</v>
       </c>
       <c r="J8" s="4">
@@ -3083,7 +3083,7 @@
         <v>71.5</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" ref="J9:J17" si="13">(B3+B9)/2</f>
+        <f t="shared" ref="J9:J18" si="13">(B3+B9)/2</f>
         <v>111</v>
       </c>
       <c r="K9" s="4">
@@ -3155,7 +3155,7 @@
         <v>60.5</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" ref="K10:K17" si="14">(B3+B10)/2</f>
+        <f t="shared" ref="K10:K18" si="14">(B3+B10)/2</f>
         <v>100</v>
       </c>
       <c r="L10" s="5"/>
@@ -3672,63 +3672,63 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
-        <f>(B17+B18)/2</f>
+        <f t="shared" si="8"/>
         <v>43.5</v>
       </c>
       <c r="F18" s="4">
-        <f>(B16+B18)/2</f>
+        <f t="shared" si="9"/>
         <v>72.5</v>
       </c>
       <c r="G18" s="4">
-        <f>(B15+B18)/2</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="H18" s="4">
-        <f>(B14+B18)/2</f>
+        <f t="shared" si="11"/>
         <v>27.5</v>
       </c>
       <c r="I18" s="4">
-        <f>(B13+B18)/2</f>
+        <f t="shared" si="12"/>
         <v>25.5</v>
       </c>
       <c r="J18" s="4">
-        <f>(B12+B18)/2</f>
+        <f t="shared" si="13"/>
         <v>77.5</v>
       </c>
       <c r="K18" s="4">
-        <f>(B11+B18)/2</f>
+        <f t="shared" si="14"/>
         <v>121</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="4">
-        <f>ABS($B18-E18)</f>
+        <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
       <c r="N18" s="4">
-        <f>ABS($B18-F18)</f>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
       <c r="O18" s="4">
-        <f>ABS($B18-G18)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P18" s="4">
-        <f>ABS($B18-H18)</f>
+        <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
       <c r="Q18" s="4">
-        <f>ABS($B18-I18)</f>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="R18" s="4">
-        <f>ABS($B18-J18)</f>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="S18" s="4">
-        <f>ABS($B18-K18)</f>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
     </row>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView windowWidth="19380" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -929,10 +929,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>yyyy"年"m"月"d"日";@</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>42591</c:v>
                 </c:pt>
@@ -1028,16 +1028,163 @@
                 </c:pt>
                 <c:pt idx="31" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
+              <c:f>Sheet1!$B$2:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0" c:formatCode="General">
                   <c:v>212</c:v>
                 </c:pt>
@@ -1224,10 +1371,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>yyyy"年"m"月"d"日";@</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>42591</c:v>
                 </c:pt>
@@ -1323,16 +1470,163 @@
                 </c:pt>
                 <c:pt idx="31" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
                   <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>42671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$33</c:f>
+              <c:f>Sheet1!$C$2:$C$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0" c:formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1463,7 +1757,7 @@
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="4"/>
+        <c:majorUnit val="9"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
@@ -2534,15 +2828,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5"/>
+    <col min="1" max="1" width="15.625"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="1.125" customWidth="1"/>
     <col min="5" max="11" width="10.875" customWidth="1"/>
@@ -3805,6 +4099,251 @@
     <row r="33" spans="1:1">
       <c r="A33" s="2">
         <v>42622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
+        <v>42623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>42624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2">
+        <v>42625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2">
+        <v>42626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2">
+        <v>42627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2">
+        <v>42628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2">
+        <v>42629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2">
+        <v>42630</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2">
+        <v>42631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2">
+        <v>42632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2">
+        <v>42633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2">
+        <v>42636</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2">
+        <v>42637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2">
+        <v>42638</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2">
+        <v>42639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2">
+        <v>42640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2">
+        <v>42641</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2">
+        <v>42642</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2">
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2">
+        <v>42650</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2">
+        <v>42651</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2">
+        <v>42652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2">
+        <v>42653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2">
+        <v>42654</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2">
+        <v>42655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2">
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2">
+        <v>42657</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2">
+        <v>42658</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2">
+        <v>42659</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2">
+        <v>42661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2">
+        <v>42662</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2">
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2">
+        <v>42671</v>
       </c>
     </row>
   </sheetData>
@@ -3818,8 +4357,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="19380" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>7 天误差</t>
+  </si>
+  <si>
+    <t>大于 10.0</t>
+  </si>
+  <si>
+    <t>大于 63.5</t>
+  </si>
+  <si>
+    <t>大于 11.0</t>
   </si>
 </sst>
 </file>
@@ -700,11 +709,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1234,7 +1243,7 @@
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="General">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,8 +2839,8 @@
   <sheetPr/>
   <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3963,388 +3972,1292 @@
         <v>42607</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="8"/>
-        <v>43.5</v>
+        <v>44.5</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="9"/>
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="11"/>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="12"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="13"/>
-        <v>77.5</v>
+        <v>78.5</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="14"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="4">
         <f t="shared" si="1"/>
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" si="2"/>
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" si="6"/>
-        <v>59.5</v>
+        <v>58.5</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="7"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="2">
         <v>42608</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="E19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4">
+        <v>40</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="2">
         <v>42609</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="2">
         <v>42610</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="2">
         <v>42611</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="2">
         <v>42612</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="2">
         <v>42613</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="2">
         <v>42614</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="2">
         <v>42615</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="2">
         <v>42616</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="2">
         <v>42617</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="2">
         <v>42618</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="2">
         <v>42619</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="2">
         <v>42620</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="2">
         <v>42621</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="2">
         <v>42622</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="2">
         <v>42623</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="2">
         <v>42624</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="2">
         <v>42625</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="2">
         <v>42626</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="2">
         <v>42627</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="2">
         <v>42628</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="2">
         <v>42629</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="2">
         <v>42630</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="2">
         <v>42631</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="2">
         <v>42632</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="2">
         <v>42633</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="2">
         <v>42634</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="2">
         <v>42635</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="2">
         <v>42636</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="2">
         <v>42637</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="2">
         <v>42638</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="2">
         <v>42639</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="2">
         <v>42640</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="2">
         <v>42641</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="2">
         <v>42642</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="2">
         <v>42643</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="2">
         <v>42644</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="2">
         <v>42645</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="2">
         <v>42646</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="2">
         <v>42647</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="2">
         <v>42648</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="2">
         <v>42649</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="2">
         <v>42650</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="2">
         <v>42651</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="2">
         <v>42652</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="2">
         <v>42653</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="2">
         <v>42654</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="2">
         <v>42655</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="2">
         <v>42656</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="2">
         <v>42657</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="2">
         <v>42658</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="2">
         <v>42659</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="2">
         <v>42660</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="2">
         <v>42661</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="2">
         <v>42662</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="2">
         <v>42663</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="2">
         <v>42664</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="2">
         <v>42665</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="2">
         <v>42666</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="2">
         <v>42667</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="2">
         <v>42668</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="2">
         <v>42669</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="2">
         <v>42670</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="2">
         <v>42671</v>
       </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4357,7 +5270,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -2840,7 +2840,7 @@
   <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="10350"/>
+    <workbookView windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>Kalles Fraktaler</t>
+  </si>
+  <si>
+    <t>商</t>
   </si>
   <si>
     <t>1 天预测值</t>
@@ -81,13 +84,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -106,7 +110,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,15 +179,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,29 +201,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,53 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,6 +286,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -288,67 +310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,13 +334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,13 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +376,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,13 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +453,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,6 +496,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -487,21 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,30 +553,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -557,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,137 +573,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +712,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1243,7 +1250,7 @@
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="General">
-                  <c:v>20</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,7 +1692,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,22 +2844,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="1.125" customWidth="1"/>
-    <col min="5" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="1.125" customWidth="1"/>
+    <col min="6" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2862,10 +2870,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2884,10 +2892,10 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2906,8 +2914,11 @@
       <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="2">
         <v>42591</v>
       </c>
@@ -2917,58 +2928,62 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3">
+        <f>C2/B2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="3">
-        <f>ABS($B2-E2)</f>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="4">
+        <f>ABS($B2-F2)</f>
         <v>212</v>
       </c>
-      <c r="N2" s="3">
-        <f t="shared" ref="N2:S2" si="0">ABS($B2-F2)</f>
+      <c r="O2" s="4">
+        <f t="shared" ref="O2:T2" si="0">ABS($B2-G2)</f>
         <v>212</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="4">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="4">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="4">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="4">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="4">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>42592</v>
       </c>
@@ -2978,59 +2993,63 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D18" si="1">C3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <f>(B2+B3)/2</f>
         <v>194.5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4">
-        <f t="shared" ref="M3:M18" si="1">ABS($B3-E3)</f>
+      <c r="M3" s="6"/>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N18" si="2">ABS($B3-F3)</f>
         <v>17.5</v>
       </c>
-      <c r="N3" s="3">
-        <f t="shared" ref="N3:N18" si="2">ABS($B3-F3)</f>
-        <v>177</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="O3" s="4">
         <f t="shared" ref="O3:O18" si="3">ABS($B3-G3)</f>
         <v>177</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="4">
         <f t="shared" ref="P3:P18" si="4">ABS($B3-H3)</f>
         <v>177</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q18" si="5">ABS($B3-I3)</f>
         <v>177</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="4">
         <f t="shared" ref="R3:R18" si="6">ABS($B3-J3)</f>
         <v>177</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="4">
         <f t="shared" ref="S3:S18" si="7">ABS($B3-K3)</f>
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T18" si="8">ABS($B3-L3)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <v>42593</v>
       </c>
@@ -3040,60 +3059,64 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4:E18" si="8">(B3+B4)/2</f>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F18" si="9">(B3+B4)/2</f>
         <v>137.5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="5">
         <f>(B2+B4)/2</f>
         <v>155</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4">
-        <f t="shared" si="1"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5">
+        <f t="shared" si="2"/>
         <v>39.5</v>
       </c>
-      <c r="N4" s="4">
-        <f t="shared" si="2"/>
+      <c r="O4" s="5">
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="O4" s="3">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="P4" s="4">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="4">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="4">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="4">
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="4">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>42594</v>
       </c>
@@ -3103,61 +3126,65 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <f t="shared" si="8"/>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" ref="F5:F18" si="9">(B3+B5)/2</f>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G18" si="10">(B3+B5)/2</f>
         <v>125.5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="5">
         <f>(B2+B5)/2</f>
         <v>143</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4">
-        <f t="shared" si="1"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="5">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N5" s="4">
-        <f t="shared" si="2"/>
+      <c r="O5" s="5">
+        <f t="shared" si="3"/>
         <v>51.5</v>
       </c>
-      <c r="O5" s="4">
-        <f t="shared" si="3"/>
+      <c r="P5" s="5">
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="P5" s="3">
-        <f t="shared" si="4"/>
-        <v>74</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="4">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="4">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="4">
         <f t="shared" si="7"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="4">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <v>42595</v>
       </c>
@@ -3167,62 +3194,66 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" si="8"/>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="9"/>
+      <c r="G6" s="5">
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" ref="G6:G18" si="10">(B3+B6)/2</f>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:H18" si="11">(B3+B6)/2</f>
         <v>110.5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="5">
         <f>(B2+B6)/2</f>
         <v>128</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4">
-        <f t="shared" si="1"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N6" s="4">
-        <f t="shared" si="2"/>
+      <c r="O6" s="5">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="O6" s="4">
-        <f t="shared" si="3"/>
+      <c r="P6" s="5">
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
-      <c r="P6" s="4">
-        <f t="shared" si="4"/>
+      <c r="Q6" s="5">
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="Q6" s="3">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="R6" s="4">
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="4">
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="4">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <v>42596</v>
       </c>
@@ -3232,63 +3263,67 @@
       <c r="C7">
         <v>19</v>
       </c>
-      <c r="E7" s="4">
-        <f t="shared" si="8"/>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12751677852349</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="9"/>
         <v>96.5</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="9"/>
+      <c r="G7" s="5">
+        <f t="shared" si="10"/>
         <v>111.5</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="10"/>
+      <c r="H7" s="5">
+        <f t="shared" si="11"/>
         <v>123.5</v>
       </c>
-      <c r="H7" s="4">
-        <f t="shared" ref="H7:H18" si="11">(B3+B7)/2</f>
+      <c r="I7" s="5">
+        <f t="shared" ref="I7:I18" si="12">(B3+B7)/2</f>
         <v>163</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="5">
         <f>(B2+B7)/2</f>
         <v>180.5</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4">
-        <f t="shared" si="1"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5">
+        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
-      <c r="N7" s="4">
-        <f t="shared" si="2"/>
+      <c r="O7" s="5">
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
-      <c r="O7" s="4">
-        <f t="shared" si="3"/>
+      <c r="P7" s="5">
+        <f t="shared" si="4"/>
         <v>25.5</v>
       </c>
-      <c r="P7" s="4">
-        <f t="shared" si="4"/>
+      <c r="Q7" s="5">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="5"/>
+      <c r="R7" s="5">
+        <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
-      <c r="R7" s="3">
-        <f t="shared" si="6"/>
-        <v>149</v>
-      </c>
-      <c r="S7" s="3">
+      <c r="S7" s="4">
         <f t="shared" si="7"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="4">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="2">
         <v>42597</v>
       </c>
@@ -3298,64 +3333,68 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" si="8"/>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="9"/>
+      <c r="G8" s="5">
+        <f t="shared" si="10"/>
         <v>42.5</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="10"/>
+      <c r="H8" s="5">
+        <f t="shared" si="11"/>
         <v>57.5</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="11"/>
+      <c r="I8" s="5">
+        <f t="shared" si="12"/>
         <v>69.5</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" ref="I8:I18" si="12">(B3+B8)/2</f>
+      <c r="J8" s="5">
+        <f t="shared" ref="J8:J18" si="13">(B3+B8)/2</f>
         <v>109</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="5">
         <f>(B2+B8)/2</f>
         <v>126.5</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4">
-        <f t="shared" si="1"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="N8" s="4">
-        <f t="shared" si="2"/>
+      <c r="O8" s="5">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="O8" s="4">
-        <f t="shared" si="3"/>
+      <c r="P8" s="5">
+        <f t="shared" si="4"/>
         <v>16.5</v>
       </c>
-      <c r="P8" s="4">
-        <f t="shared" si="4"/>
+      <c r="Q8" s="5">
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="5"/>
+      <c r="R8" s="5">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="R8" s="4">
-        <f t="shared" si="6"/>
+      <c r="S8" s="5">
+        <f t="shared" si="7"/>
         <v>85.5</v>
       </c>
-      <c r="S8" s="3">
-        <f t="shared" si="7"/>
+      <c r="T8" s="4">
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <v>42598</v>
       </c>
@@ -3365,337 +3404,357 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
-        <f t="shared" si="8"/>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="9"/>
+      <c r="G9" s="5">
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="G9" s="4">
-        <f t="shared" si="10"/>
+      <c r="H9" s="5">
+        <f t="shared" si="11"/>
         <v>44.5</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="11"/>
+      <c r="I9" s="5">
+        <f t="shared" si="12"/>
         <v>59.5</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="12"/>
+      <c r="J9" s="5">
+        <f t="shared" si="13"/>
         <v>71.5</v>
       </c>
-      <c r="J9" s="4">
-        <f t="shared" ref="J9:J18" si="13">(B3+B9)/2</f>
+      <c r="K9" s="5">
+        <f t="shared" ref="K9:K18" si="14">(B3+B9)/2</f>
         <v>111</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="5">
         <f>(B2+B9)/2</f>
         <v>128.5</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4">
+      <c r="M9" s="6"/>
+      <c r="N9" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="6"/>
+        <v>26.5</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="8"/>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="2">
+        <v>42599</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N9" s="4">
+        <v>0.217391304347826</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="12"/>
+        <v>33.5</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="13"/>
+        <v>48.5</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="14"/>
+        <v>60.5</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" ref="L10:L18" si="15">(B3+B10)/2</f>
+        <v>100</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="6"/>
+        <v>25.5</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="7"/>
+        <v>37.5</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="2">
+        <v>42600</v>
+      </c>
+      <c r="B11">
+        <v>224</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.133928571428571</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="9"/>
+        <v>123.5</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="10"/>
+        <v>134.5</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="11"/>
+        <v>132.5</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="12"/>
+        <v>186.5</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="13"/>
+        <v>134</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="14"/>
+        <v>149</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="15"/>
+        <v>161</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="5">
+        <f t="shared" si="2"/>
+        <v>100.5</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="3"/>
+        <v>89.5</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="4"/>
+        <v>91.5</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2">
+        <v>42601</v>
+      </c>
+      <c r="B12">
+        <v>137</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0437956204379562</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="9"/>
+        <v>180.5</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="11"/>
+        <v>91</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="13"/>
+        <v>143</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="14"/>
+        <v>90.5</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="15"/>
+        <v>105.5</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="5">
+        <f t="shared" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="7"/>
+        <v>46.5</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="8"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2">
+        <v>42602</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="10"/>
+        <v>128.5</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="14"/>
+        <v>91</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="15"/>
+        <v>38.5</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="5">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O13" s="5">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="P13" s="5">
         <f t="shared" si="4"/>
-        <v>14.5</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="5"/>
-        <v>26.5</v>
-      </c>
-      <c r="R9" s="4">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="7"/>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="2">
-        <v>42599</v>
-      </c>
-      <c r="B10">
-        <v>23</v>
-      </c>
-      <c r="C10">
         <v>5</v>
       </c>
-      <c r="E10" s="4">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="10"/>
-        <v>86</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="11"/>
-        <v>33.5</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="12"/>
-        <v>48.5</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="13"/>
-        <v>60.5</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" ref="K10:K18" si="14">(B3+B10)/2</f>
-        <v>100</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="4"/>
-        <v>10.5</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="5"/>
-        <v>25.5</v>
-      </c>
-      <c r="R10" s="4">
-        <f t="shared" si="6"/>
-        <v>37.5</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="2">
-        <v>42600</v>
-      </c>
-      <c r="B11">
-        <v>224</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="8"/>
-        <v>123.5</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="9"/>
-        <v>134.5</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="10"/>
-        <v>132.5</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="11"/>
-        <v>186.5</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="12"/>
-        <v>134</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="13"/>
-        <v>149</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="14"/>
-        <v>161</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4">
-        <f t="shared" si="1"/>
-        <v>100.5</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="2"/>
-        <v>89.5</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="3"/>
-        <v>91.5</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="4"/>
-        <v>37.5</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="R11" s="4">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="7"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="2">
-        <v>42601</v>
-      </c>
-      <c r="B12">
-        <v>137</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="8"/>
-        <v>180.5</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="10"/>
-        <v>91</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="11"/>
-        <v>89</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="12"/>
-        <v>143</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="13"/>
-        <v>90.5</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="14"/>
-        <v>105.5</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4">
-        <f t="shared" si="1"/>
-        <v>43.5</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="Q13" s="5">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R13" s="5">
         <f t="shared" si="6"/>
-        <v>46.5</v>
-      </c>
-      <c r="S12" s="4">
+        <v>4</v>
+      </c>
+      <c r="S13" s="5">
         <f t="shared" si="7"/>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="2">
-        <v>42602</v>
-      </c>
-      <c r="B13">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
+        <v>58</v>
+      </c>
+      <c r="T13" s="5">
         <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="9"/>
-        <v>128.5</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="12"/>
-        <v>37</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="13"/>
-        <v>91</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="14"/>
-        <v>38.5</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="2"/>
-        <v>95.5</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="R13" s="4">
-        <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="2">
         <v>42603</v>
       </c>
@@ -3705,1559 +3764,1579 @@
       <c r="C14">
         <v>17</v>
       </c>
-      <c r="E14" s="4">
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.459459459459459</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="11"/>
+        <v>130.5</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="15"/>
+        <v>93</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="4"/>
+        <v>93.5</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T14" s="5">
         <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="F14" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2">
+        <v>42604</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.363636363636364</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="9"/>
-        <v>87</v>
-      </c>
-      <c r="G14" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="10"/>
-        <v>130.5</v>
-      </c>
-      <c r="H14" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="I14" s="4">
+        <v>79.5</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="12"/>
+        <v>123</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="13"/>
+        <v>22.5</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="14"/>
+        <v>33.5</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="15"/>
+        <v>31.5</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="5">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="4"/>
+        <v>57.5</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="7"/>
+        <v>11.5</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="8"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2">
+        <v>42605</v>
+      </c>
+      <c r="B16">
+        <v>127</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.110236220472441</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="9"/>
+        <v>74.5</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="12"/>
+        <v>132</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="13"/>
+        <v>175.5</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="15"/>
+        <v>86</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="5">
+        <f t="shared" si="2"/>
+        <v>52.5</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="6"/>
+        <v>48.5</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="J14" s="4">
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="2">
+        <v>42606</v>
+      </c>
+      <c r="B17">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.260869565217391</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="10"/>
+        <v>45.5</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="13"/>
-        <v>39</v>
-      </c>
-      <c r="K14" s="4">
+        <v>103</v>
+      </c>
+      <c r="K17" s="5">
         <f t="shared" si="14"/>
-        <v>93</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4">
+        <v>146.5</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="5">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="3"/>
+        <v>23.5</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="7"/>
+        <v>77.5</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="2">
+        <v>42607</v>
+      </c>
+      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N14" s="4">
+        <v>0.138888888888889</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="9"/>
+        <v>52.5</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="10"/>
+        <v>81.5</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="12"/>
+        <v>36.5</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="13"/>
+        <v>34.5</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="14"/>
+        <v>86.5</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="15"/>
+        <v>130</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="5">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="O14" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="O18" s="5">
         <f t="shared" si="3"/>
-        <v>93.5</v>
-      </c>
-      <c r="P14" s="4">
+        <v>45.5</v>
+      </c>
+      <c r="P18" s="5">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="R14" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="2">
-        <v>42604</v>
-      </c>
-      <c r="B15">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="8"/>
-        <v>29.5</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="9"/>
-        <v>27.5</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="10"/>
-        <v>79.5</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="11"/>
-        <v>123</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="12"/>
-        <v>22.5</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="13"/>
-        <v>33.5</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="14"/>
-        <v>31.5</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="4">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="3"/>
-        <v>57.5</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="Q15" s="4">
+      <c r="Q18" s="5">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R18" s="5">
         <f t="shared" si="6"/>
-        <v>11.5</v>
-      </c>
-      <c r="S15" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="S18" s="5">
         <f t="shared" si="7"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="2">
-        <v>42605</v>
-      </c>
-      <c r="B16">
-        <v>127</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="T18" s="5">
         <f t="shared" si="8"/>
-        <v>74.5</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="11"/>
-        <v>132</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="12"/>
-        <v>175.5</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="13"/>
-        <v>75</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="14"/>
-        <v>86</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="4">
-        <f t="shared" si="1"/>
-        <v>52.5</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="5"/>
-        <v>48.5</v>
-      </c>
-      <c r="R16" s="4">
-        <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="2">
-        <v>42606</v>
-      </c>
-      <c r="B17">
-        <v>69</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="9"/>
-        <v>45.5</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="10"/>
-        <v>53</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="11"/>
-        <v>51</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="12"/>
-        <v>103</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="13"/>
-        <v>146.5</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="14"/>
-        <v>46</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="2"/>
-        <v>23.5</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="R17" s="4">
-        <f t="shared" si="6"/>
-        <v>77.5</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="2">
-        <v>42607</v>
-      </c>
-      <c r="B18">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="8"/>
-        <v>44.5</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="9"/>
-        <v>73.5</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="11"/>
-        <v>28.5</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="12"/>
-        <v>26.5</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="13"/>
-        <v>78.5</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="14"/>
-        <v>122</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="4">
-        <f t="shared" si="1"/>
-        <v>24.5</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="2"/>
-        <v>53.5</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="4"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
-      </c>
-      <c r="R18" s="4">
-        <f t="shared" si="6"/>
-        <v>58.5</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="2">
         <v>42608</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="5">
         <v>40</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="I19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="2">
         <v>42609</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="2">
         <v>42610</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="2">
         <v>42611</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="2">
         <v>42612</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="2">
         <v>42613</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="2">
         <v>42614</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="2">
         <v>42615</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="2">
         <v>42616</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="2">
         <v>42617</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="2">
         <v>42618</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="2">
         <v>42619</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="2">
         <v>42620</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="2">
         <v>42621</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="2">
         <v>42622</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="2">
         <v>42623</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="2">
         <v>42624</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="2">
         <v>42625</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="2">
         <v>42626</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="2">
         <v>42627</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="2">
         <v>42628</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="2">
         <v>42629</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="2">
         <v>42630</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="2">
         <v>42631</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="2">
         <v>42632</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="2">
         <v>42633</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="2">
         <v>42634</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="2">
         <v>42635</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="2">
         <v>42636</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="2">
         <v>42637</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="2">
         <v>42638</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="2">
         <v>42639</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="2">
         <v>42640</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="2">
         <v>42641</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="2">
         <v>42642</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="2">
         <v>42643</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="2">
         <v>42644</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="2">
         <v>42645</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="2">
         <v>42646</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="2">
         <v>42647</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="2">
         <v>42648</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="2">
         <v>42649</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="2">
         <v>42650</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="2">
         <v>42651</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="2">
         <v>42652</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="2">
         <v>42653</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="2">
         <v>42654</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="2">
         <v>42655</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="2">
         <v>42656</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="2">
         <v>42657</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="2">
         <v>42658</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="2">
         <v>42659</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="2">
         <v>42660</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="2">
         <v>42661</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="2">
         <v>42662</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="2">
         <v>42663</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="2">
         <v>42664</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="2">
         <v>42665</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="2">
         <v>42666</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="2">
         <v>42667</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="2">
         <v>42668</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="2">
         <v>42669</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="2">
         <v>42670</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="2">
         <v>42671</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView windowWidth="23280" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -70,28 +70,19 @@
   <si>
     <t>7 天误差</t>
   </si>
-  <si>
-    <t>大于 10.0</t>
-  </si>
-  <si>
-    <t>大于 63.5</t>
-  </si>
-  <si>
-    <t>大于 11.0</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,10 +100,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,14 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -159,22 +158,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,9 +182,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,9 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,23 +229,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,43 +265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,13 +295,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,91 +409,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +444,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,30 +467,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,21 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -553,6 +514,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -710,10 +701,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1250,7 +1241,10 @@
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="General">
-                  <c:v>36</c:v>
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="General">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,6 +1687,9 @@
                 </c:pt>
                 <c:pt idx="16" c:formatCode="General">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2847,7 +2844,11 @@
   <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4047,99 +4048,144 @@
         <v>42607</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>0.138888888888889</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="9"/>
-        <v>52.5</v>
+        <v>57.5</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="10"/>
-        <v>81.5</v>
+        <v>86.5</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="12"/>
-        <v>36.5</v>
+        <v>41.5</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="13"/>
-        <v>34.5</v>
+        <v>39.5</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" si="14"/>
-        <v>86.5</v>
+        <v>91.5</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="15"/>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="5">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="3"/>
-        <v>45.5</v>
+        <v>40.5</v>
       </c>
       <c r="P18" s="5">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="5">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" si="7"/>
-        <v>50.5</v>
+        <v>45.5</v>
       </c>
       <c r="T18" s="5">
         <f t="shared" si="8"/>
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="2">
         <v>42608</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19/B19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f>(B18+B19)/2</f>
+        <v>23.5</v>
+      </c>
+      <c r="G19" s="5">
+        <f>(B17+B19)/2</f>
+        <v>35</v>
+      </c>
+      <c r="H19" s="5">
+        <f>(B16+B19)/2</f>
+        <v>64</v>
+      </c>
+      <c r="I19" s="5">
+        <f>(B15+B19)/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="J19" s="5">
+        <f>(B14+B19)/2</f>
+        <v>19</v>
+      </c>
+      <c r="K19" s="5">
+        <f>(B13+B19)/2</f>
+        <v>17</v>
+      </c>
+      <c r="L19" s="5">
+        <f>(B12+B19)/2</f>
+        <v>69</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="5">
+        <f>ABS($B19-F19)</f>
+        <v>22.5</v>
+      </c>
+      <c r="O19" s="5">
+        <f>ABS($B19-G19)</f>
+        <v>34</v>
+      </c>
+      <c r="P19" s="5">
+        <f>ABS($B19-H19)</f>
+        <v>63</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>ABS($B19-I19)</f>
+        <v>10.5</v>
+      </c>
+      <c r="R19" s="5">
+        <f>ABS($B19-J19)</f>
         <v>18</v>
       </c>
-      <c r="G19" s="5">
-        <v>40</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="S19" s="5">
+        <f>ABS($B19-K19)</f>
+        <v>16</v>
+      </c>
+      <c r="T19" s="5">
+        <f>ABS($B19-L19)</f>
+        <v>68</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="2">

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -79,10 +79,10 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0000000000"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,6 +97,21 @@
       <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,11 +130,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,35 +209,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -182,24 +222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,33 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +253,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,13 +283,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,13 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,13 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,49 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,43 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,11 +447,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +497,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,56 +544,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,37 +564,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,94 +600,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1244,6 +1244,12 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="General">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1689,6 +1695,12 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2848,7 +2860,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2995,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D18" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D19" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -3022,31 +3034,31 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:N18" si="2">ABS($B3-F3)</f>
+        <f t="shared" ref="N3:N19" si="2">ABS($B3-F3)</f>
         <v>17.5</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O18" si="3">ABS($B3-G3)</f>
+        <f t="shared" ref="O3:O19" si="3">ABS($B3-G3)</f>
         <v>177</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P18" si="4">ABS($B3-H3)</f>
+        <f t="shared" ref="P3:P19" si="4">ABS($B3-H3)</f>
         <v>177</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q18" si="5">ABS($B3-I3)</f>
+        <f t="shared" ref="Q3:Q19" si="5">ABS($B3-I3)</f>
         <v>177</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R18" si="6">ABS($B3-J3)</f>
+        <f t="shared" ref="R3:R19" si="6">ABS($B3-J3)</f>
         <v>177</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S18" si="7">ABS($B3-K3)</f>
+        <f t="shared" ref="S3:S19" si="7">ABS($B3-K3)</f>
         <v>177</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3:T18" si="8">ABS($B3-L3)</f>
+        <f t="shared" ref="T3:T19" si="8">ABS($B3-L3)</f>
         <v>177</v>
       </c>
     </row>
@@ -3065,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F18" si="9">(B3+B4)/2</f>
+        <f t="shared" ref="F4:F19" si="9">(B3+B4)/2</f>
         <v>137.5</v>
       </c>
       <c r="G4" s="5">
@@ -3136,7 +3148,7 @@
         <v>86</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G18" si="10">(B3+B5)/2</f>
+        <f t="shared" ref="G5:G19" si="10">(B3+B5)/2</f>
         <v>125.5</v>
       </c>
       <c r="H5" s="5">
@@ -3208,7 +3220,7 @@
         <v>71</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H18" si="11">(B3+B6)/2</f>
+        <f t="shared" ref="H6:H19" si="11">(B3+B6)/2</f>
         <v>110.5</v>
       </c>
       <c r="I6" s="5">
@@ -3281,7 +3293,7 @@
         <v>123.5</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" ref="I7:I18" si="12">(B3+B7)/2</f>
+        <f t="shared" ref="I7:I19" si="12">(B3+B7)/2</f>
         <v>163</v>
       </c>
       <c r="J7" s="5">
@@ -3355,7 +3367,7 @@
         <v>69.5</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ref="J8:J18" si="13">(B3+B8)/2</f>
+        <f t="shared" ref="J8:J19" si="13">(B3+B8)/2</f>
         <v>109</v>
       </c>
       <c r="K8" s="5">
@@ -3430,7 +3442,7 @@
         <v>71.5</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ref="K9:K18" si="14">(B3+B9)/2</f>
+        <f t="shared" ref="K9:K19" si="14">(B3+B9)/2</f>
         <v>111</v>
       </c>
       <c r="L9" s="5">
@@ -3506,7 +3518,7 @@
         <v>60.5</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L18" si="15">(B3+B10)/2</f>
+        <f t="shared" ref="L10:L19" si="15">(B3+B10)/2</f>
         <v>100</v>
       </c>
       <c r="M10" s="6"/>
@@ -4120,110 +4132,216 @@
         <v>42608</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3">
-        <f>C19/B19</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.28</v>
       </c>
       <c r="F19" s="5">
-        <f>(B18+B19)/2</f>
+        <f t="shared" si="9"/>
+        <v>35.5</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="12"/>
         <v>23.5</v>
       </c>
-      <c r="G19" s="5">
-        <f>(B17+B19)/2</f>
-        <v>35</v>
-      </c>
-      <c r="H19" s="5">
-        <f>(B16+B19)/2</f>
-        <v>64</v>
-      </c>
-      <c r="I19" s="5">
-        <f>(B15+B19)/2</f>
-        <v>11.5</v>
-      </c>
       <c r="J19" s="5">
-        <f>(B14+B19)/2</f>
-        <v>19</v>
+        <f t="shared" si="13"/>
+        <v>31</v>
       </c>
       <c r="K19" s="5">
-        <f>(B13+B19)/2</f>
-        <v>17</v>
+        <f t="shared" si="14"/>
+        <v>29</v>
       </c>
       <c r="L19" s="5">
-        <f>(B12+B19)/2</f>
-        <v>69</v>
+        <f t="shared" si="15"/>
+        <v>81</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="5">
-        <f>ABS($B19-F19)</f>
-        <v>22.5</v>
+        <f t="shared" si="2"/>
+        <v>10.5</v>
       </c>
       <c r="O19" s="5">
-        <f>ABS($B19-G19)</f>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="P19" s="5">
-        <f>ABS($B19-H19)</f>
-        <v>63</v>
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
       <c r="Q19" s="5">
-        <f>ABS($B19-I19)</f>
-        <v>10.5</v>
+        <f t="shared" si="5"/>
+        <v>1.5</v>
       </c>
       <c r="R19" s="5">
-        <f>ABS($B19-J19)</f>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="S19" s="5">
-        <f>ABS($B19-K19)</f>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="T19" s="5">
-        <f>ABS($B19-L19)</f>
-        <v>68</v>
+        <f t="shared" si="8"/>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="2">
         <v>42609</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20/B20</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <f>(B19+B20)/2</f>
+        <v>13</v>
+      </c>
+      <c r="G20" s="5">
+        <f>(B18+B20)/2</f>
+        <v>23.5</v>
+      </c>
+      <c r="H20" s="5">
+        <f>(B17+B20)/2</f>
+        <v>35</v>
+      </c>
+      <c r="I20" s="5">
+        <f>(B16+B20)/2</f>
+        <v>64</v>
+      </c>
+      <c r="J20" s="5">
+        <f>(B15+B20)/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="K20" s="5">
+        <f>(B14+B20)/2</f>
+        <v>19</v>
+      </c>
+      <c r="L20" s="5">
+        <f>(B13+B20)/2</f>
+        <v>17</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="5">
+        <f>ABS($B20-F20)</f>
+        <v>12</v>
+      </c>
+      <c r="O20" s="5">
+        <f>ABS($B20-G20)</f>
+        <v>22.5</v>
+      </c>
+      <c r="P20" s="5">
+        <f>ABS($B20-H20)</f>
+        <v>34</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>ABS($B20-I20)</f>
+        <v>63</v>
+      </c>
+      <c r="R20" s="5">
+        <f>ABS($B20-J20)</f>
+        <v>10.5</v>
+      </c>
+      <c r="S20" s="5">
+        <f>ABS($B20-K20)</f>
+        <v>18</v>
+      </c>
+      <c r="T20" s="5">
+        <f>ABS($B20-L20)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="2">
         <v>42610</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21/B21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f>(B20+B21)/2</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <f>(B19+B21)/2</f>
+        <v>13</v>
+      </c>
+      <c r="H21" s="5">
+        <f>(B18+B21)/2</f>
+        <v>23.5</v>
+      </c>
+      <c r="I21" s="5">
+        <f>(B17+B21)/2</f>
+        <v>35</v>
+      </c>
+      <c r="J21" s="5">
+        <f>(B16+B21)/2</f>
+        <v>64</v>
+      </c>
+      <c r="K21" s="5">
+        <f>(B15+B21)/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="L21" s="5">
+        <f>(B14+B21)/2</f>
+        <v>19</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="5">
+        <f>ABS($B21-F21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <f>ABS($B21-G21)</f>
+        <v>12</v>
+      </c>
+      <c r="P21" s="5">
+        <f>ABS($B21-H21)</f>
+        <v>22.5</v>
+      </c>
+      <c r="Q21" s="5">
+        <f>ABS($B21-I21)</f>
+        <v>34</v>
+      </c>
+      <c r="R21" s="5">
+        <f>ABS($B21-J21)</f>
+        <v>63</v>
+      </c>
+      <c r="S21" s="5">
+        <f>ABS($B21-K21)</f>
+        <v>10.5</v>
+      </c>
+      <c r="T21" s="5">
+        <f>ABS($B21-L21)</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="2">

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -76,13 +76,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0000000000"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,21 +97,6 @@
       <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,52 +115,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -186,9 +125,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +142,35 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +205,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,25 +253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,49 +283,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +349,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,6 +374,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +419,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -447,41 +447,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,20 +473,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +518,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,10 +1247,16 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="General">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="General">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,6 +1708,12 @@
                 </c:pt>
                 <c:pt idx="19" c:formatCode="General">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="General">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2860,7 +2872,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3007,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D19" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D21" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -3034,31 +3046,31 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:N19" si="2">ABS($B3-F3)</f>
+        <f t="shared" ref="N3:N21" si="2">ABS($B3-F3)</f>
         <v>17.5</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O19" si="3">ABS($B3-G3)</f>
+        <f t="shared" ref="O3:O21" si="3">ABS($B3-G3)</f>
         <v>177</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P19" si="4">ABS($B3-H3)</f>
+        <f t="shared" ref="P3:P21" si="4">ABS($B3-H3)</f>
         <v>177</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q19" si="5">ABS($B3-I3)</f>
+        <f t="shared" ref="Q3:Q21" si="5">ABS($B3-I3)</f>
         <v>177</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R19" si="6">ABS($B3-J3)</f>
+        <f t="shared" ref="R3:R21" si="6">ABS($B3-J3)</f>
         <v>177</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S19" si="7">ABS($B3-K3)</f>
+        <f t="shared" ref="S3:S21" si="7">ABS($B3-K3)</f>
         <v>177</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3:T19" si="8">ABS($B3-L3)</f>
+        <f t="shared" ref="T3:T21" si="8">ABS($B3-L3)</f>
         <v>177</v>
       </c>
     </row>
@@ -3077,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F19" si="9">(B3+B4)/2</f>
+        <f t="shared" ref="F4:F21" si="9">(B3+B4)/2</f>
         <v>137.5</v>
       </c>
       <c r="G4" s="5">
@@ -3148,7 +3160,7 @@
         <v>86</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G19" si="10">(B3+B5)/2</f>
+        <f t="shared" ref="G5:G21" si="10">(B3+B5)/2</f>
         <v>125.5</v>
       </c>
       <c r="H5" s="5">
@@ -3220,7 +3232,7 @@
         <v>71</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H19" si="11">(B3+B6)/2</f>
+        <f t="shared" ref="H6:H21" si="11">(B3+B6)/2</f>
         <v>110.5</v>
       </c>
       <c r="I6" s="5">
@@ -3293,7 +3305,7 @@
         <v>123.5</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" ref="I7:I19" si="12">(B3+B7)/2</f>
+        <f t="shared" ref="I7:I21" si="12">(B3+B7)/2</f>
         <v>163</v>
       </c>
       <c r="J7" s="5">
@@ -3367,7 +3379,7 @@
         <v>69.5</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ref="J8:J19" si="13">(B3+B8)/2</f>
+        <f t="shared" ref="J8:J21" si="13">(B3+B8)/2</f>
         <v>109</v>
       </c>
       <c r="K8" s="5">
@@ -3442,7 +3454,7 @@
         <v>71.5</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ref="K9:K19" si="14">(B3+B9)/2</f>
+        <f t="shared" ref="K9:K21" si="14">(B3+B9)/2</f>
         <v>111</v>
       </c>
       <c r="L9" s="5">
@@ -3518,7 +3530,7 @@
         <v>60.5</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L19" si="15">(B3+B10)/2</f>
+        <f t="shared" ref="L10:L21" si="15">(B3+B10)/2</f>
         <v>100</v>
       </c>
       <c r="M10" s="6"/>
@@ -4204,71 +4216,71 @@
         <v>42609</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <f>C20/B20</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.0909090909090909</v>
       </c>
       <c r="F20" s="5">
-        <f>(B19+B20)/2</f>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>18</v>
       </c>
       <c r="G20" s="5">
-        <f>(B18+B20)/2</f>
-        <v>23.5</v>
+        <f t="shared" si="10"/>
+        <v>28.5</v>
       </c>
       <c r="H20" s="5">
-        <f>(B17+B20)/2</f>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>40</v>
       </c>
       <c r="I20" s="5">
-        <f>(B16+B20)/2</f>
-        <v>64</v>
+        <f t="shared" si="12"/>
+        <v>69</v>
       </c>
       <c r="J20" s="5">
-        <f>(B15+B20)/2</f>
-        <v>11.5</v>
+        <f t="shared" si="13"/>
+        <v>16.5</v>
       </c>
       <c r="K20" s="5">
-        <f>(B14+B20)/2</f>
-        <v>19</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="L20" s="5">
-        <f>(B13+B20)/2</f>
-        <v>17</v>
+        <f t="shared" si="15"/>
+        <v>22</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="5">
-        <f>ABS($B20-F20)</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="O20" s="5">
-        <f>ABS($B20-G20)</f>
-        <v>22.5</v>
+        <f t="shared" si="3"/>
+        <v>17.5</v>
       </c>
       <c r="P20" s="5">
-        <f>ABS($B20-H20)</f>
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
       <c r="Q20" s="5">
-        <f>ABS($B20-I20)</f>
-        <v>63</v>
+        <f t="shared" si="5"/>
+        <v>58</v>
       </c>
       <c r="R20" s="5">
-        <f>ABS($B20-J20)</f>
-        <v>10.5</v>
+        <f t="shared" si="6"/>
+        <v>5.5</v>
       </c>
       <c r="S20" s="5">
-        <f>ABS($B20-K20)</f>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="T20" s="5">
-        <f>ABS($B20-L20)</f>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -4282,64 +4294,64 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <f>C21/B21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21" s="5">
-        <f>(B20+B21)/2</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="G21" s="5">
-        <f>(B19+B21)/2</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="H21" s="5">
-        <f>(B18+B21)/2</f>
+        <f t="shared" si="11"/>
         <v>23.5</v>
       </c>
       <c r="I21" s="5">
-        <f>(B17+B21)/2</f>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="J21" s="5">
-        <f>(B16+B21)/2</f>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="K21" s="5">
-        <f>(B15+B21)/2</f>
+        <f t="shared" si="14"/>
         <v>11.5</v>
       </c>
       <c r="L21" s="5">
-        <f>(B14+B21)/2</f>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="5">
-        <f>ABS($B21-F21)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="O21" s="5">
-        <f>ABS($B21-G21)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="P21" s="5">
-        <f>ABS($B21-H21)</f>
+        <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
       <c r="Q21" s="5">
-        <f>ABS($B21-I21)</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="R21" s="5">
-        <f>ABS($B21-J21)</f>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="S21" s="5">
-        <f>ABS($B21-K21)</f>
+        <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
       <c r="T21" s="5">
-        <f>ABS($B21-L21)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -4347,39 +4359,145 @@
       <c r="A22" s="2">
         <v>42611</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f>C22/B22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f>(B21+B22)/2</f>
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <f>(B20+B22)/2</f>
+        <v>7</v>
+      </c>
+      <c r="H22" s="5">
+        <f>(B19+B22)/2</f>
+        <v>14</v>
+      </c>
+      <c r="I22" s="5">
+        <f>(B18+B22)/2</f>
+        <v>24.5</v>
+      </c>
+      <c r="J22" s="5">
+        <f>(B17+B22)/2</f>
+        <v>36</v>
+      </c>
+      <c r="K22" s="5">
+        <f>(B16+B22)/2</f>
+        <v>65</v>
+      </c>
+      <c r="L22" s="5">
+        <f>(B15+B22)/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="5">
+        <f>ABS($B22-F22)</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <f>ABS($B22-G22)</f>
+        <v>4</v>
+      </c>
+      <c r="P22" s="5">
+        <f>ABS($B22-H22)</f>
+        <v>11</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>ABS($B22-I22)</f>
+        <v>21.5</v>
+      </c>
+      <c r="R22" s="5">
+        <f>ABS($B22-J22)</f>
+        <v>33</v>
+      </c>
+      <c r="S22" s="5">
+        <f>ABS($B22-K22)</f>
+        <v>62</v>
+      </c>
+      <c r="T22" s="5">
+        <f>ABS($B22-L22)</f>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="2">
         <v>42612</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <f>C23/B23</f>
+        <v>0.08</v>
+      </c>
+      <c r="F23" s="5">
+        <f>(B22+B23)/2</f>
+        <v>14</v>
+      </c>
+      <c r="G23" s="5">
+        <f>(B21+B23)/2</f>
+        <v>13</v>
+      </c>
+      <c r="H23" s="5">
+        <f>(B20+B23)/2</f>
+        <v>18</v>
+      </c>
+      <c r="I23" s="5">
+        <f>(B19+B23)/2</f>
+        <v>25</v>
+      </c>
+      <c r="J23" s="5">
+        <f>(B18+B23)/2</f>
+        <v>35.5</v>
+      </c>
+      <c r="K23" s="5">
+        <f>(B17+B23)/2</f>
+        <v>47</v>
+      </c>
+      <c r="L23" s="5">
+        <f>(B16+B23)/2</f>
+        <v>76</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="5">
+        <f>ABS($B23-F23)</f>
+        <v>11</v>
+      </c>
+      <c r="O23" s="5">
+        <f>ABS($B23-G23)</f>
+        <v>12</v>
+      </c>
+      <c r="P23" s="5">
+        <f>ABS($B23-H23)</f>
+        <v>7</v>
+      </c>
+      <c r="Q23" s="5">
+        <f>ABS($B23-I23)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <f>ABS($B23-J23)</f>
+        <v>10.5</v>
+      </c>
+      <c r="S23" s="5">
+        <f>ABS($B23-K23)</f>
+        <v>22</v>
+      </c>
+      <c r="T23" s="5">
+        <f>ABS($B23-L23)</f>
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="2">

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="9930"/>
+    <workbookView windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,13 +76,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000000000"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,6 +97,20 @@
       <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,6 +129,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -123,11 +167,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,58 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +213,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -229,8 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,25 +295,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,48 +367,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,13 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,25 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,13 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,8 +450,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +504,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,45 +529,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -552,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,7 +1256,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="General">
-                  <c:v>25</c:v>
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="General">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,7 +1716,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="General">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,7 +2878,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3019,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D21" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D23" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -3046,31 +3052,31 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:N21" si="2">ABS($B3-F3)</f>
+        <f t="shared" ref="N3:N23" si="2">ABS($B3-F3)</f>
         <v>17.5</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O21" si="3">ABS($B3-G3)</f>
+        <f t="shared" ref="O3:O23" si="3">ABS($B3-G3)</f>
         <v>177</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P21" si="4">ABS($B3-H3)</f>
+        <f t="shared" ref="P3:P23" si="4">ABS($B3-H3)</f>
         <v>177</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q21" si="5">ABS($B3-I3)</f>
+        <f t="shared" ref="Q3:Q23" si="5">ABS($B3-I3)</f>
         <v>177</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R21" si="6">ABS($B3-J3)</f>
+        <f t="shared" ref="R3:R23" si="6">ABS($B3-J3)</f>
         <v>177</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S21" si="7">ABS($B3-K3)</f>
+        <f t="shared" ref="S3:S23" si="7">ABS($B3-K3)</f>
         <v>177</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3:T21" si="8">ABS($B3-L3)</f>
+        <f t="shared" ref="T3:T23" si="8">ABS($B3-L3)</f>
         <v>177</v>
       </c>
     </row>
@@ -3089,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F21" si="9">(B3+B4)/2</f>
+        <f t="shared" ref="F4:F23" si="9">(B3+B4)/2</f>
         <v>137.5</v>
       </c>
       <c r="G4" s="5">
@@ -3160,7 +3166,7 @@
         <v>86</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G21" si="10">(B3+B5)/2</f>
+        <f t="shared" ref="G5:G23" si="10">(B3+B5)/2</f>
         <v>125.5</v>
       </c>
       <c r="H5" s="5">
@@ -3232,7 +3238,7 @@
         <v>71</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H21" si="11">(B3+B6)/2</f>
+        <f t="shared" ref="H6:H23" si="11">(B3+B6)/2</f>
         <v>110.5</v>
       </c>
       <c r="I6" s="5">
@@ -3305,7 +3311,7 @@
         <v>123.5</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" ref="I7:I21" si="12">(B3+B7)/2</f>
+        <f t="shared" ref="I7:I23" si="12">(B3+B7)/2</f>
         <v>163</v>
       </c>
       <c r="J7" s="5">
@@ -3379,7 +3385,7 @@
         <v>69.5</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ref="J8:J21" si="13">(B3+B8)/2</f>
+        <f t="shared" ref="J8:J23" si="13">(B3+B8)/2</f>
         <v>109</v>
       </c>
       <c r="K8" s="5">
@@ -3454,7 +3460,7 @@
         <v>71.5</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ref="K9:K21" si="14">(B3+B9)/2</f>
+        <f t="shared" ref="K9:K23" si="14">(B3+B9)/2</f>
         <v>111</v>
       </c>
       <c r="L9" s="5">
@@ -3530,7 +3536,7 @@
         <v>60.5</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L21" si="15">(B3+B10)/2</f>
+        <f t="shared" ref="L10:L23" si="15">(B3+B10)/2</f>
         <v>100</v>
       </c>
       <c r="M10" s="6"/>
@@ -4366,64 +4372,64 @@
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <f>C22/B22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F22" s="5">
-        <f>(B21+B22)/2</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G22" s="5">
-        <f>(B20+B22)/2</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H22" s="5">
-        <f>(B19+B22)/2</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="I22" s="5">
-        <f>(B18+B22)/2</f>
+        <f t="shared" si="12"/>
         <v>24.5</v>
       </c>
       <c r="J22" s="5">
-        <f>(B17+B22)/2</f>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="K22" s="5">
-        <f>(B16+B22)/2</f>
+        <f t="shared" si="14"/>
         <v>65</v>
       </c>
       <c r="L22" s="5">
-        <f>(B15+B22)/2</f>
+        <f t="shared" si="15"/>
         <v>12.5</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="5">
-        <f>ABS($B22-F22)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O22" s="5">
-        <f>ABS($B22-G22)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P22" s="5">
-        <f>ABS($B22-H22)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="Q22" s="5">
-        <f>ABS($B22-I22)</f>
+        <f t="shared" si="5"/>
         <v>21.5</v>
       </c>
       <c r="R22" s="5">
-        <f>ABS($B22-J22)</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="S22" s="5">
-        <f>ABS($B22-K22)</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="T22" s="5">
-        <f>ABS($B22-L22)</f>
+        <f t="shared" si="8"/>
         <v>9.5</v>
       </c>
     </row>
@@ -4432,91 +4438,144 @@
         <v>42612</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <f>C23/B23</f>
-        <v>0.08</v>
+        <f t="shared" si="1"/>
+        <v>0.135135135135135</v>
       </c>
       <c r="F23" s="5">
-        <f>(B22+B23)/2</f>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>20</v>
       </c>
       <c r="G23" s="5">
-        <f>(B21+B23)/2</f>
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>19</v>
       </c>
       <c r="H23" s="5">
-        <f>(B20+B23)/2</f>
-        <v>18</v>
+        <f t="shared" si="11"/>
+        <v>24</v>
       </c>
       <c r="I23" s="5">
-        <f>(B19+B23)/2</f>
-        <v>25</v>
+        <f t="shared" si="12"/>
+        <v>31</v>
       </c>
       <c r="J23" s="5">
-        <f>(B18+B23)/2</f>
-        <v>35.5</v>
+        <f t="shared" si="13"/>
+        <v>41.5</v>
       </c>
       <c r="K23" s="5">
-        <f>(B17+B23)/2</f>
-        <v>47</v>
+        <f t="shared" si="14"/>
+        <v>53</v>
       </c>
       <c r="L23" s="5">
-        <f>(B16+B23)/2</f>
-        <v>76</v>
+        <f t="shared" si="15"/>
+        <v>82</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="5">
-        <f>ABS($B23-F23)</f>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="O23" s="5">
-        <f>ABS($B23-G23)</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="P23" s="5">
-        <f>ABS($B23-H23)</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="Q23" s="5">
-        <f>ABS($B23-I23)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="R23" s="5">
-        <f>ABS($B23-J23)</f>
-        <v>10.5</v>
+        <f t="shared" si="6"/>
+        <v>4.5</v>
       </c>
       <c r="S23" s="5">
-        <f>ABS($B23-K23)</f>
-        <v>22</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="T23" s="5">
-        <f>ABS($B23-L23)</f>
-        <v>51</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="2">
         <v>42613</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <f>C24/B24</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="F24" s="5">
+        <f>(B23+B24)/2</f>
+        <v>23</v>
+      </c>
+      <c r="G24" s="5">
+        <f>(B22+B24)/2</f>
+        <v>6</v>
+      </c>
+      <c r="H24" s="5">
+        <f>(B21+B24)/2</f>
+        <v>5</v>
+      </c>
+      <c r="I24" s="5">
+        <f>(B20+B24)/2</f>
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
+        <f>(B19+B24)/2</f>
+        <v>17</v>
+      </c>
+      <c r="K24" s="5">
+        <f>(B18+B24)/2</f>
+        <v>27.5</v>
+      </c>
+      <c r="L24" s="5">
+        <f>(B17+B24)/2</f>
+        <v>39</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="5">
+        <f>ABS($B24-F24)</f>
+        <v>14</v>
+      </c>
+      <c r="O24" s="5">
+        <f>ABS($B24-G24)</f>
+        <v>3</v>
+      </c>
+      <c r="P24" s="5">
+        <f>ABS($B24-H24)</f>
+        <v>4</v>
+      </c>
+      <c r="Q24" s="5">
+        <f>ABS($B24-I24)</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="5">
+        <f>ABS($B24-J24)</f>
+        <v>8</v>
+      </c>
+      <c r="S24" s="5">
+        <f>ABS($B24-K24)</f>
+        <v>18.5</v>
+      </c>
+      <c r="T24" s="5">
+        <f>ABS($B24-L24)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="2">

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9930"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,13 +76,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.0000000000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000000000"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -101,7 +101,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,31 +188,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,54 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,18 +253,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,60 +278,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,6 +319,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,6 +374,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,24 +447,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -476,6 +458,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,8 +489,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,16 +701,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1192,74 +1192,131 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>212</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>177</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
+                <c:pt idx="7">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="General">
+                <c:pt idx="8">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="General">
+                <c:pt idx="9">
                   <c:v>224</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="General">
+                <c:pt idx="10">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="General">
+                <c:pt idx="11">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="General">
+                <c:pt idx="12">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="General">
+                <c:pt idx="13">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="General">
+                <c:pt idx="14">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="General">
+                <c:pt idx="15">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="General">
+                <c:pt idx="16">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="General">
+                <c:pt idx="17">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="General">
+                <c:pt idx="18">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="General">
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="General">
+                <c:pt idx="20">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="General">
+                <c:pt idx="21">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="General">
-                  <c:v>9</c:v>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,74 +1709,131 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
-                <c:pt idx="0" c:formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="General">
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
+                <c:pt idx="5">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="General">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="General">
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="General">
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="General">
+                <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="General">
+                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="General">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="General">
+                <c:pt idx="12">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="General">
+                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="General">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="General">
+                <c:pt idx="15">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="General">
+                <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="General">
+                <c:pt idx="17">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="General">
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="General">
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="General">
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="General">
+                <c:pt idx="21">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="General">
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,7 +2992,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3025,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D23" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D24" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -3052,31 +3166,31 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:N23" si="2">ABS($B3-F3)</f>
+        <f t="shared" ref="N3:N24" si="2">ABS($B3-F3)</f>
         <v>17.5</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O23" si="3">ABS($B3-G3)</f>
+        <f t="shared" ref="O3:O24" si="3">ABS($B3-G3)</f>
         <v>177</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P23" si="4">ABS($B3-H3)</f>
+        <f t="shared" ref="P3:P24" si="4">ABS($B3-H3)</f>
         <v>177</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q23" si="5">ABS($B3-I3)</f>
+        <f t="shared" ref="Q3:Q24" si="5">ABS($B3-I3)</f>
         <v>177</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R23" si="6">ABS($B3-J3)</f>
+        <f t="shared" ref="R3:R24" si="6">ABS($B3-J3)</f>
         <v>177</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S23" si="7">ABS($B3-K3)</f>
+        <f t="shared" ref="S3:S24" si="7">ABS($B3-K3)</f>
         <v>177</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3:T23" si="8">ABS($B3-L3)</f>
+        <f t="shared" ref="T3:T24" si="8">ABS($B3-L3)</f>
         <v>177</v>
       </c>
     </row>
@@ -3095,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F23" si="9">(B3+B4)/2</f>
+        <f t="shared" ref="F4:F24" si="9">(B3+B4)/2</f>
         <v>137.5</v>
       </c>
       <c r="G4" s="5">
@@ -3166,7 +3280,7 @@
         <v>86</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G23" si="10">(B3+B5)/2</f>
+        <f t="shared" ref="G5:G24" si="10">(B3+B5)/2</f>
         <v>125.5</v>
       </c>
       <c r="H5" s="5">
@@ -3238,7 +3352,7 @@
         <v>71</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H23" si="11">(B3+B6)/2</f>
+        <f t="shared" ref="H6:H24" si="11">(B3+B6)/2</f>
         <v>110.5</v>
       </c>
       <c r="I6" s="5">
@@ -3311,7 +3425,7 @@
         <v>123.5</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" ref="I7:I23" si="12">(B3+B7)/2</f>
+        <f t="shared" ref="I7:I24" si="12">(B3+B7)/2</f>
         <v>163</v>
       </c>
       <c r="J7" s="5">
@@ -3385,7 +3499,7 @@
         <v>69.5</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ref="J8:J23" si="13">(B3+B8)/2</f>
+        <f t="shared" ref="J8:J24" si="13">(B3+B8)/2</f>
         <v>109</v>
       </c>
       <c r="K8" s="5">
@@ -3460,7 +3574,7 @@
         <v>71.5</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ref="K9:K23" si="14">(B3+B9)/2</f>
+        <f t="shared" ref="K9:K24" si="14">(B3+B9)/2</f>
         <v>111</v>
       </c>
       <c r="L9" s="5">
@@ -3536,7 +3650,7 @@
         <v>60.5</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L23" si="15">(B3+B10)/2</f>
+        <f t="shared" ref="L10:L24" si="15">(B3+B10)/2</f>
         <v>100</v>
       </c>
       <c r="M10" s="6"/>
@@ -4510,433 +4624,1440 @@
         <v>42613</v>
       </c>
       <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
       <c r="D24" s="3">
-        <f>C24/B24</f>
-        <v>0.444444444444444</v>
+        <f t="shared" si="1"/>
+        <v>0.5625</v>
       </c>
       <c r="F24" s="5">
-        <f>(B23+B24)/2</f>
-        <v>23</v>
+        <f t="shared" si="9"/>
+        <v>26.5</v>
       </c>
       <c r="G24" s="5">
-        <f>(B22+B24)/2</f>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>9.5</v>
       </c>
       <c r="H24" s="5">
-        <f>(B21+B24)/2</f>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>8.5</v>
       </c>
       <c r="I24" s="5">
-        <f>(B20+B24)/2</f>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>13.5</v>
       </c>
       <c r="J24" s="5">
-        <f>(B19+B24)/2</f>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>20.5</v>
       </c>
       <c r="K24" s="5">
-        <f>(B18+B24)/2</f>
-        <v>27.5</v>
+        <f t="shared" si="14"/>
+        <v>31</v>
       </c>
       <c r="L24" s="5">
-        <f>(B17+B24)/2</f>
-        <v>39</v>
+        <f t="shared" si="15"/>
+        <v>42.5</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="5">
-        <f>ABS($B24-F24)</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>10.5</v>
       </c>
       <c r="O24" s="5">
-        <f>ABS($B24-G24)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>6.5</v>
       </c>
       <c r="P24" s="5">
-        <f>ABS($B24-H24)</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>7.5</v>
       </c>
       <c r="Q24" s="5">
-        <f>ABS($B24-I24)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2.5</v>
       </c>
       <c r="R24" s="5">
-        <f>ABS($B24-J24)</f>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>4.5</v>
       </c>
       <c r="S24" s="5">
-        <f>ABS($B24-K24)</f>
-        <v>18.5</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="T24" s="5">
-        <f>ABS($B24-L24)</f>
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>26.5</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="2">
         <v>42614</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25:D43" si="16">C25/B25</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25:F43" si="17">(B24+B25)/2</f>
+        <v>11</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25:G43" si="18">(B23+B25)/2</f>
+        <v>21.5</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" ref="H25:H43" si="19">(B22+B25)/2</f>
+        <v>4.5</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" ref="I25:I43" si="20">(B21+B25)/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" ref="J25:J43" si="21">(B20+B25)/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" ref="K25:K43" si="22">(B19+B25)/2</f>
+        <v>15.5</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" ref="L25:L43" si="23">(B18+B25)/2</f>
+        <v>26</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="5">
+        <f t="shared" ref="N25:N43" si="24">ABS($B25-F25)</f>
+        <v>5</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" ref="O25:O43" si="25">ABS($B25-G25)</f>
+        <v>15.5</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" ref="P25:P43" si="26">ABS($B25-H25)</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" ref="Q25:Q43" si="27">ABS($B25-I25)</f>
+        <v>2.5</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" ref="R25:R43" si="28">ABS($B25-J25)</f>
+        <v>2.5</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" ref="S25:S43" si="29">ABS($B25-K25)</f>
+        <v>9.5</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" ref="T25:T43" si="30">ABS($B25-L25)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="2">
         <v>42615</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
+      <c r="B26">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="16"/>
+        <v>0.109375</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="19"/>
+        <v>50.5</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="20"/>
+        <v>33.5</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="21"/>
+        <v>32.5</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="22"/>
+        <v>37.5</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="23"/>
+        <v>44.5</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="5">
+        <f t="shared" si="24"/>
+        <v>29</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="26"/>
+        <v>13.5</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="27"/>
+        <v>30.5</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="28"/>
+        <v>31.5</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="29"/>
+        <v>26.5</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="30"/>
+        <v>19.5</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="2">
         <v>42616</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
+      <c r="B27">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="16"/>
+        <v>0.0652173913043478</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="18"/>
+        <v>26</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="20"/>
+        <v>41.5</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="21"/>
+        <v>24.5</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="22"/>
+        <v>23.5</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="23"/>
+        <v>28.5</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="5">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="27"/>
+        <v>4.5</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="28"/>
+        <v>21.5</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="29"/>
+        <v>22.5</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="30"/>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="2">
         <v>42617</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
+      <c r="B28">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="16"/>
+        <v>0.128205128205128</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="17"/>
+        <v>42.5</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="18"/>
+        <v>51.5</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="19"/>
+        <v>22.5</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="20"/>
+        <v>27.5</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="21"/>
+        <v>38</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="5">
+        <f t="shared" si="24"/>
+        <v>3.5</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="25"/>
+        <v>12.5</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="26"/>
+        <v>16.5</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="27"/>
+        <v>11.5</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="2">
         <v>42618</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="17"/>
+        <v>25.5</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="22"/>
+        <v>24.5</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="23"/>
+        <v>7.5</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="5">
+        <f t="shared" si="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="26"/>
+        <v>26</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="29"/>
+        <v>12.5</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="30"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="2">
         <v>42619</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="16"/>
+        <v>0.0526315789473684</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="17"/>
+        <v>15.5</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="19"/>
+        <v>32.5</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="20"/>
+        <v>41.5</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="21"/>
+        <v>12.5</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="22"/>
+        <v>17.5</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="5">
+        <f t="shared" si="24"/>
+        <v>3.5</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="26"/>
+        <v>13.5</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="27"/>
+        <v>22.5</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="28"/>
+        <v>6.5</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="29"/>
+        <v>1.5</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="2">
         <v>42620</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
+      <c r="B31">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="16"/>
+        <v>0.105263157894737</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="18"/>
+        <v>15.5</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="20"/>
+        <v>32.5</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="21"/>
+        <v>41.5</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="22"/>
+        <v>12.5</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="23"/>
+        <v>17.5</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="5">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="27"/>
+        <v>13.5</v>
+      </c>
+      <c r="R31" s="5">
+        <f t="shared" si="28"/>
+        <v>22.5</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="29"/>
+        <v>6.5</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" si="30"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="2">
         <v>42621</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="16"/>
+        <v>0.241379310344828</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="19"/>
+        <v>20.5</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="20"/>
+        <v>34</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="21"/>
+        <v>37.5</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="22"/>
+        <v>46.5</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="23"/>
+        <v>17.5</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="5">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="26"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="28"/>
+        <v>8.5</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="29"/>
+        <v>17.5</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="30"/>
+        <v>11.5</v>
+      </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="2">
         <v>42622</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="16"/>
+        <v>0.294117647058824</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="20"/>
+        <v>14.5</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="21"/>
+        <v>28</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="22"/>
+        <v>31.5</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="23"/>
+        <v>40.5</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="5">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="27"/>
+        <v>2.5</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" si="28"/>
+        <v>11</v>
+      </c>
+      <c r="S33" s="5">
+        <f t="shared" si="29"/>
+        <v>14.5</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" si="30"/>
+        <v>23.5</v>
+      </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="2">
         <v>42623</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
+      <c r="B34">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="16"/>
+        <v>0.0789473684210526</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="17"/>
+        <v>27.5</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="18"/>
+        <v>33.5</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="19"/>
+        <v>28.5</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="20"/>
+        <v>28.5</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="22"/>
+        <v>38.5</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="5">
+        <f t="shared" si="24"/>
+        <v>10.5</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="26"/>
+        <v>9.5</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="27"/>
+        <v>9.5</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" si="28"/>
+        <v>13</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="T34" s="5">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="2">
         <v>42624</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="16"/>
+        <v>0.075</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="18"/>
+        <v>28.5</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="19"/>
+        <v>34.5</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="20"/>
+        <v>29.5</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="21"/>
+        <v>29.5</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="23"/>
+        <v>39.5</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="5">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" si="25"/>
+        <v>11.5</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="26"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="27"/>
+        <v>10.5</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="28"/>
+        <v>10.5</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="T35" s="5">
+        <f t="shared" si="30"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="2">
         <v>42625</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="B36">
+        <v>94</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="16"/>
+        <v>0.074468085106383</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="18"/>
+        <v>66</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="19"/>
+        <v>55.5</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="20"/>
+        <v>61.5</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="21"/>
+        <v>56.5</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="22"/>
+        <v>56.5</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="23"/>
+        <v>53</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="5">
+        <f t="shared" si="24"/>
+        <v>27</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="25"/>
+        <v>28</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="26"/>
+        <v>38.5</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="27"/>
+        <v>32.5</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" si="28"/>
+        <v>37.5</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="29"/>
+        <v>37.5</v>
+      </c>
+      <c r="T36" s="5">
+        <f t="shared" si="30"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="2">
         <v>42626</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="16"/>
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="17"/>
+        <v>56</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="20"/>
+        <v>17.5</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="21"/>
+        <v>23.5</v>
+      </c>
+      <c r="K37" s="5">
+        <f t="shared" si="22"/>
+        <v>18.5</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="23"/>
+        <v>18.5</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="5">
+        <f t="shared" si="24"/>
+        <v>38</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="P37" s="5">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="Q37" s="5">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="R37" s="5">
+        <f t="shared" si="28"/>
+        <v>5.5</v>
+      </c>
+      <c r="S37" s="5">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="T37" s="5">
+        <f t="shared" si="30"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="2">
         <v>42627</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
+      <c r="B38">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="17"/>
+        <v>37.5</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="18"/>
+        <v>75.5</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="19"/>
+        <v>48.5</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="20"/>
+        <v>47.5</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="21"/>
+        <v>37</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="22"/>
+        <v>43</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="23"/>
+        <v>38</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="5">
+        <f t="shared" si="24"/>
+        <v>19.5</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="25"/>
+        <v>18.5</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" si="26"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" si="27"/>
+        <v>9.5</v>
+      </c>
+      <c r="R38" s="5">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="2">
         <v>42628</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
+      <c r="B39">
+        <v>136</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="16"/>
+        <v>0.0294117647058824</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="17"/>
+        <v>96.5</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="18"/>
+        <v>77</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="19"/>
+        <v>115</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="20"/>
+        <v>88</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="21"/>
+        <v>87</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="22"/>
+        <v>76.5</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="23"/>
+        <v>82.5</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="5">
+        <f t="shared" si="24"/>
+        <v>39.5</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="25"/>
+        <v>59</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="27"/>
+        <v>48</v>
+      </c>
+      <c r="R39" s="5">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="29"/>
+        <v>59.5</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="30"/>
+        <v>53.5</v>
+      </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="2">
         <v>42629</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
+      <c r="B40">
+        <v>159</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="16"/>
+        <v>0.00628930817610063</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="17"/>
+        <v>147.5</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="18"/>
+        <v>108</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="19"/>
+        <v>88.5</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="20"/>
+        <v>126.5</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="21"/>
+        <v>99.5</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="22"/>
+        <v>98.5</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="23"/>
+        <v>88</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="5">
+        <f t="shared" si="24"/>
+        <v>11.5</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="25"/>
+        <v>51</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="26"/>
+        <v>70.5</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="27"/>
+        <v>32.5</v>
+      </c>
+      <c r="R40" s="5">
+        <f t="shared" si="28"/>
+        <v>59.5</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="29"/>
+        <v>60.5</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="30"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="2">
         <v>42630</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
+      <c r="B41">
+        <v>185</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="16"/>
+        <v>0.0108108108108108</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="17"/>
+        <v>172</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="18"/>
+        <v>160.5</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="19"/>
+        <v>121</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="20"/>
+        <v>101.5</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="21"/>
+        <v>139.5</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="22"/>
+        <v>112.5</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="23"/>
+        <v>111.5</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="5">
+        <f t="shared" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="25"/>
+        <v>24.5</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="26"/>
+        <v>64</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="27"/>
+        <v>83.5</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" si="28"/>
+        <v>45.5</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="29"/>
+        <v>72.5</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="30"/>
+        <v>73.5</v>
+      </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="2">
         <v>42631</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
+      <c r="B42">
+        <v>70</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="17"/>
+        <v>127.5</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="18"/>
+        <v>114.5</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="19"/>
+        <v>103</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="20"/>
+        <v>63.5</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="21"/>
+        <v>44</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="23"/>
+        <v>55</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="5">
+        <f t="shared" si="24"/>
+        <v>57.5</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="25"/>
+        <v>44.5</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="26"/>
+        <v>33</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="27"/>
+        <v>6.5</v>
+      </c>
+      <c r="R42" s="5">
+        <f t="shared" si="28"/>
+        <v>26</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="2">
         <v>42632</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="17"/>
+        <v>35.5</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="18"/>
+        <v>93</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="19"/>
+        <v>80</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="20"/>
+        <v>68.5</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="22"/>
+        <v>9.5</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="23"/>
+        <v>47.5</v>
+      </c>
+      <c r="M43" s="6"/>
+      <c r="N43" s="5">
+        <f t="shared" si="24"/>
+        <v>34.5</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="25"/>
+        <v>92</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="26"/>
+        <v>79</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="27"/>
+        <v>67.5</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="29"/>
+        <v>8.5</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="30"/>
+        <v>46.5</v>
+      </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="2">
